--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345705.529694905</v>
+        <v>1341568.372444753</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.9430992003371</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>137.492882757125</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>43.14208835701106</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.28962109883653</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>321.5157137271156</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>93.13222609860485</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.80383257690524</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>176.7738246218248</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>78.45398462345058</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>137.5177824039942</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>24.55276019063743</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977349</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1083.192790552105</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1338.392942985346</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>1169.456760057439</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>1125.878893030155</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1125.878893030155</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1125.878893030155</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2076.592243063854</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W4" t="n">
-        <v>1787.175073026894</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X4" t="n">
-        <v>1559.185522128876</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y4" t="n">
-        <v>1338.392942985346</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>387.6744800024168</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>387.6744800024168</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2343.567165271469</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2343.567165271469</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2343.567165271469</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1990.798510001355</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1617.332751740275</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.332751740275</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>903.4321187182926</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>734.4959357903857</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>584.37929637805</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>289.5762552977465</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>121.589790606025</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>121.589790606025</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063345</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X7" t="n">
-        <v>1158.783151063345</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y7" t="n">
-        <v>1100.395441389704</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1384.846061372529</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1026.580362765779</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>640.7921101675347</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>229.8062053779271</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2358.393671812029</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2358.393671812029</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2027.330784468458</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2027.330784468458</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1653.865026207378</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y8" t="n">
-        <v>1263.725694231566</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.747682288229</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C10" t="n">
-        <v>444.747682288229</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D10" t="n">
-        <v>444.747682288229</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E10" t="n">
-        <v>444.747682288229</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F10" t="n">
-        <v>444.747682288229</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232069</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>672.7372331862464</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>444.747682288229</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.747682288229</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841084</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998673</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.528408326419</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5418,22 +5418,22 @@
         <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,37 +6147,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
@@ -6414,22 +6414,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250933</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.537229081858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081858</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>98.24448441976801</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.40333084624473</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>86.99395161137491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26325,19 +26325,19 @@
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140037</v>
@@ -26346,16 +26346,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707361</v>
@@ -26432,34 +26432,34 @@
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.220928819</v>
+        <v>-846974.2209288195</v>
       </c>
       <c r="C6" t="n">
         <v>267777.5626471004</v>
       </c>
       <c r="D6" t="n">
-        <v>267777.5626471003</v>
+        <v>267777.5626471004</v>
       </c>
       <c r="E6" t="n">
-        <v>-131217.4361311571</v>
+        <v>-131564.8153855139</v>
       </c>
       <c r="F6" t="n">
-        <v>376268.0054933891</v>
+        <v>375920.6262390322</v>
       </c>
       <c r="G6" t="n">
-        <v>376268.0054933893</v>
+        <v>375920.6262390324</v>
       </c>
       <c r="H6" t="n">
-        <v>376268.0054933893</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="I6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390321</v>
       </c>
       <c r="J6" t="n">
-        <v>208662.8276834066</v>
+        <v>208315.4484290497</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.0054933894</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390322</v>
       </c>
       <c r="M6" t="n">
-        <v>243660.7117644626</v>
+        <v>243313.3325101055</v>
       </c>
       <c r="N6" t="n">
-        <v>376268.0054933891</v>
+        <v>375920.6262390322</v>
       </c>
       <c r="O6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390319</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390321</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.7907424631435</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>217.190158863558</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>105.4733846612013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,16 +27587,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.8480222249915</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>85.36033201459588</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>113.5259588816289</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>35.15702120625885</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.7808207751895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>234.7738781511292</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>128.2042003567832</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>28.78881764080998</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.24383501326314</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940682</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718153</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473074</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32314,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>355.4083096598231</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637956</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159148</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>465.1758167018086</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795938</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962379</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974562</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674332</v>
@@ -35737,13 +35737,13 @@
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35980,10 +35980,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>213.2742757378048</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1341568.372444753</v>
+        <v>1343328.902747539</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>137.492882757125</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>68.07819084440318</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>33.28962109883653</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>197.2489798547189</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>321.5157137271156</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>97.42673987134226</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.63957399764172</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>176.7738246218248</v>
+        <v>203.7892779811713</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.55276019063743</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0177171766865</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.70391688093296</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>7.069540131684477</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>68.98225678327431</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>46.15319674220954</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>2.268486125805158</v>
       </c>
       <c r="F34" t="n">
-        <v>40.15381658332819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492517</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552105</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>906.1501793480365</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084328</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.9724752679349</v>
+        <v>326.0381161665167</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1602.820240176683</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1313.403070139722</v>
+        <v>728.4791601402865</v>
       </c>
       <c r="X4" t="n">
-        <v>1085.413519241705</v>
+        <v>728.4791601402865</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.6209400981746</v>
+        <v>507.6865809967563</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.902695549579</v>
+        <v>505.1927996570369</v>
       </c>
       <c r="C5" t="n">
-        <v>745.9401786091673</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="D5" t="n">
-        <v>387.6744800024168</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>387.6744800024168</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2339.229272571735</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2339.229272571735</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2008.166385228164</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1655.39772995805</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1281.93197169697</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>891.7926397211587</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756898</v>
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429757</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744474</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182926</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>734.4959357903857</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>584.37929637805</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>436.4662027956568</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>289.5762552977465</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>121.589790606025</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>121.589790606025</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.86271359008</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1753.808578312941</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1384.846061372529</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D8" t="n">
-        <v>1026.580362765779</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E8" t="n">
-        <v>640.7921101675347</v>
+        <v>668.0804468941474</v>
       </c>
       <c r="F8" t="n">
-        <v>229.8062053779271</v>
+        <v>257.0945421045398</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4804,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1753.808578312941</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,16 +4886,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400721</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="26">
@@ -6220,31 +6220,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>282.1478848544703</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4360536966684</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E34" t="n">
-        <v>301.5721730233224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,7 +7089,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,46 +7414,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>98.24448441976801</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.40333084624473</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>54.56191943763255</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>211.5151132204103</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>79.63321623493805</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.165476520764</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140037</v>
@@ -26352,7 +26352,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140035</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
@@ -26432,34 +26432,34 @@
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.2209288195</v>
+        <v>-846974.2209288194</v>
       </c>
       <c r="C6" t="n">
         <v>267777.5626471004</v>
       </c>
       <c r="D6" t="n">
-        <v>267777.5626471004</v>
+        <v>267777.5626471005</v>
       </c>
       <c r="E6" t="n">
-        <v>-131564.8153855139</v>
+        <v>-131252.1740565927</v>
       </c>
       <c r="F6" t="n">
-        <v>375920.6262390322</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="G6" t="n">
-        <v>375920.6262390324</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="H6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="I6" t="n">
-        <v>375920.6262390321</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="J6" t="n">
-        <v>208315.4484290497</v>
+        <v>208628.0897579711</v>
       </c>
       <c r="K6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="L6" t="n">
-        <v>375920.6262390322</v>
+        <v>376233.2675679536</v>
       </c>
       <c r="M6" t="n">
-        <v>243313.3325101055</v>
+        <v>243625.9738390266</v>
       </c>
       <c r="N6" t="n">
-        <v>375920.6262390322</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="O6" t="n">
-        <v>375920.6262390319</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="P6" t="n">
-        <v>375920.6262390321</v>
+        <v>376233.2675679533</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>217.190158863558</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>338.7978548973082</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.8480222249915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>89.27401848187213</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>85.36033201459588</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>109.2314451088915</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>35.15702120625885</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>234.7738781511292</v>
+        <v>207.7584247917827</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>80.24383501326314</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>465.1758167018086</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254367</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,19 +35971,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
